--- a/resources/Logo.xlsx
+++ b/resources/Logo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanner\Documents\GitHub\cpuofu.github.io\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -350,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U9"/>
+  <dimension ref="B3:V410"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,6 +516,785 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
+    <row r="10" spans="2:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+    </row>
+    <row r="33" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+    </row>
+    <row r="40" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="3:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
